--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_20.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_20.xlsx
@@ -483,72 +483,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.111969111969112</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
+          <t>[['G:7', 'C:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(66.74, 73.84)]</t>
+          <t>[(23.4, 31.32)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(76.74, 83.98)]</t>
+          <t>[(2.352018, 8.679455)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1988636363636364</v>
+        <v>0.06742294520547945</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['B:7', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['Bb:7', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(32.233898, 36.959159)]</t>
+          <t>[(42.96, 45.78)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.46, 12.58)]</t>
+          <t>[(48.18, 50.27)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -557,35 +561,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>jaah_44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2873563218390804</v>
+        <v>0.1017241379310345</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['Ab:7', 'Db', 'Db']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(25.64, 56.26)]</t>
+          <t>[(46.99, 49.5)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(44.16, 58.08)]</t>
+          <t>[(64.32, 68.27)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -594,76 +598,76 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2373626373626374</v>
+        <v>0.1112637362637363</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['E:min', 'G:7', 'C'], ['G', 'D/3', 'E:min']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['F#:min', 'A:7', 'D'], ['A', 'E', 'F#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(72.52, 83.28), (16.02, 22.5)]</t>
+          <t>[(3.733, 8.605), (10.141, 14.901)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(63.84, 65.24), (62.2, 64.4)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[(11.929818, 15.436031), (9.607823, 12.823786)]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>isophonics_292</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3311965811965812</v>
+        <v>0.2864583333333334</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['E', 'D/2', 'A/5', 'E', 'D']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D:maj', 'C:maj', 'G/3', 'D:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.22, 5.78), (0.86, 7.72)]</t>
+          <t>[(1.701428, 7.007188)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.22, 14.32), (7.4, 16.48)]</t>
+          <t>[(73.89, 86.025)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -672,195 +676,187 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.08307692307692308</v>
+        <v>0.119106699751861</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:7', 'F:maj']]</t>
+          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:7', 'E']]</t>
+          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.4, 10.18)]</t>
+          <t>[(22.37, 40.37)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(28.479798, 31.393902)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(85.75, 90.9)]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.150268336314848</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#/4', 'B', 'E/5']]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb/5', 'Ab']]</t>
+          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(127.431, 132.656)]</t>
+          <t>[(36.6, 39.0)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(93.1817, 97.709591)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[(39.02, 43.96)]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>isophonics_28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1712473572938689</v>
+        <v>0.259958071278826</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G', 'C/5', 'G', 'C'], ['C', 'G', 'C', 'C']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5'], ['D/5', 'A', 'D/5', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[(64.476575, 70.099405), (1.620158, 15.8656)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.36, 2.44)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[(31.23721, 34.035215), (34.743424, 38.330907)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1457386363636363</v>
+        <v>0.2302631578947368</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'F:7']]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.56, 12.6)]</t>
+          <t>[(122.78, 137.555)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(15.25, 22.53)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[(10.634761, 19.597664)]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.3059210526315789</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(142.14, 146.8)]</t>
+          <t>[(11.86, 17.78)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(58.4, 60.68)]</t>
+          <t>[(0.421247, 8.635573)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -869,117 +865,109 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.125</v>
+        <v>0.09642857142857142</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(23.6, 28.92), (23.04, 26.52), (254.26, 257.98), (12.56, 17.2)]</t>
+          <t>[(47.68, 51.98)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (8.46, 13.46), (43.34, 59.34), (0.24, 5.08)]</t>
+          <t>[(12.28, 17.3)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.153030303030303</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(18.07, 19.25)]</t>
+          <t>[(15.9, 106.38)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46)]</t>
+          <t>[(14.88, 99.5)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.115546218487395</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.82, 20.52), (55.14, 75.9)]</t>
+          <t>[(52.680839, 55.420793)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.06, 23.22), (57.58, 79.36)]</t>
+          <t>[(0.74, 21.5)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -988,112 +976,124 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>isophonics_109</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3125</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G', 'C/5', 'G', 'C/5', 'G']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(126.506, 148.631)]</t>
+          <t>[(94.925, 100.821)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(57.406099, 68.064058)]</t>
+          <t>[(16.92, 23.9)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2451923076923077</v>
+        <v>0.1613636363636363</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A/3'], ['A/3', 'D', 'A']]</t>
+          <t>[['A#/F', 'F:7', 'A#'], ['A#', 'A#/F', 'F:7']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648), (4.25, 9.179)]</t>
+          <t>[(271.22, 275.78), (269.7, 272.54)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(218.68, 226.54), (55.68, 62.28)]</t>
+          <t>[(16.04, 18.72), (6.56, 12.6)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.09973045822102425</v>
+        <v>0.09018567639257294</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj', 'D#:maj', 'D#:7']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(7.87, 14.66), (17.45, 22.86)]</t>
+          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88), (66.26, 77.22)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>[(12.06, 17.06), (4.84, 10.64)]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
     </row>
   </sheetData>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_20.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,441 +488,492 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.111969111969112</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_271</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
+          <t>[['C#:min/5', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(23.4, 31.32)]</t>
+          <t>[['C#:min', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(2.352018, 8.679455)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:24.806319', '0:00:29.903099')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:52.001111', '0:00:58.591690')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06742294520547945</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
-        </is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08588709677419354</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(42.96, 45.78)]</t>
+          <t>[['A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(48.18, 50.27)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1017241379310345</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(64.32, 68.27)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1112637362637363</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:min', 'G:7', 'C'], ['G', 'D/3', 'E:min']]</t>
-        </is>
+          <t>isophonics_142</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2456140350877193</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'A:7', 'D'], ['A', 'E', 'F#:min']]</t>
+          <t>[['C', 'Bb:maj/9', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.733, 8.605), (10.141, 14.901)]</t>
+          <t>[['G', 'F', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(11.929818, 15.436031), (9.607823, 12.823786)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:01:04.412564', '0:01:06.748573')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:52.415782', '0:01:59.834557')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_292</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2864583333333334</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'D/2', 'A/5', 'E', 'D']]</t>
-        </is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2083333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'C:maj', 'G/3', 'D:maj', 'C:maj']]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.701428, 7.007188)]</t>
+          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(73.89, 86.025)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:00.436303', '0:01:14.066417')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:11.320000', '0:00:14.760000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.119106699751861</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>isophonics_44</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.146875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['C', 'E:min', 'A:min'], ['E:min', 'A:min', 'C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(22.37, 40.37)]</t>
+          <t>[['A', 'C#:min/5', 'F#:min'], ['C#:min/5', 'F#:min', 'A/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(85.75, 90.9)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:00.459543', '0:00:04.197573'), ('0:00:42.696258', '0:00:48.303877')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:14.628696', '0:01:19.713866'), ('0:01:16.370192', '0:01:21.443752')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.150268336314848</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(39.02, 43.96)]</t>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.259958071278826</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G', 'C'], ['C', 'G', 'C', 'C']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3650793650793651</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5'], ['D/5', 'A', 'D/5', 'D']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(64.476575, 70.099405), (1.620158, 15.8656)]</t>
+          <t>[['C/3', 'F', 'C/3', 'F', 'C/5', 'F/3', 'G/3', 'C']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(31.23721, 34.035215), (34.743424, 38.330907)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:17.965212', '0:00:35.623988')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:13.449451', '0:02:18.803650')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2302631578947368</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(122.78, 137.555)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.634761, 19.597664)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3059210526315789</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(11.86, 17.78)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.421247, 8.635573)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(47.68, 51.98)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.28, 17.3)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
@@ -925,176 +981,155 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(15.9, 106.38)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.88, 99.5)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.115546218487395</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(52.680839, 55.420793)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.74, 21.5)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5230769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#/F', 'F:7', 'A#'], ['A#', 'A#/F', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78), (269.7, 272.54)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.04, 18.72), (6.56, 12.6)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_180</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09018567639257294</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.06, 17.06), (4.84, 10.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
